--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2040.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2040.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153897177166262</v>
+        <v>1.255028963088989</v>
       </c>
       <c r="B1">
-        <v>2.36600690089529</v>
+        <v>2.005975961685181</v>
       </c>
       <c r="C1">
-        <v>6.0776291964242</v>
+        <v>5.812239646911621</v>
       </c>
       <c r="D1">
-        <v>2.389513177983792</v>
+        <v>1.952891111373901</v>
       </c>
       <c r="E1">
-        <v>1.217015194363518</v>
+        <v>1.131213665008545</v>
       </c>
     </row>
   </sheetData>
